--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H2">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I2">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J2">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>31.77978570772256</v>
+        <v>255.4183493450442</v>
       </c>
       <c r="R2">
-        <v>286.018071369503</v>
+        <v>2298.765144105398</v>
       </c>
       <c r="S2">
-        <v>0.001642819644860576</v>
+        <v>0.00638017307825387</v>
       </c>
       <c r="T2">
-        <v>0.001642819644860576</v>
+        <v>0.006380173078253871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H3">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I3">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J3">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>37.49195085790489</v>
+        <v>85.67462482360622</v>
       </c>
       <c r="R3">
-        <v>337.427557721144</v>
+        <v>771.071623412456</v>
       </c>
       <c r="S3">
-        <v>0.001938103483767242</v>
+        <v>0.002140092660494985</v>
       </c>
       <c r="T3">
-        <v>0.001938103483767242</v>
+        <v>0.002140092660494985</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H4">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I4">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J4">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>4.798730290988334</v>
+        <v>14.68770297359322</v>
       </c>
       <c r="R4">
-        <v>43.188572618895</v>
+        <v>132.189326762339</v>
       </c>
       <c r="S4">
-        <v>0.0002480648694401816</v>
+        <v>0.0003668886254014428</v>
       </c>
       <c r="T4">
-        <v>0.0002480648694401816</v>
+        <v>0.0003668886254014429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H5">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I5">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J5">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>3.980768294985778</v>
+        <v>4.635949462042</v>
       </c>
       <c r="R5">
-        <v>35.826914654872</v>
+        <v>41.723545158378</v>
       </c>
       <c r="S5">
-        <v>0.0002057812603516587</v>
+        <v>0.0001158027997037472</v>
       </c>
       <c r="T5">
-        <v>0.0002057812603516587</v>
+        <v>0.0001158027997037472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H6">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I6">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J6">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>171.5107079543513</v>
+        <v>280.9070933110601</v>
       </c>
       <c r="R6">
-        <v>1543.596371589162</v>
+        <v>2528.163839799541</v>
       </c>
       <c r="S6">
-        <v>0.008866049724900597</v>
+        <v>0.007016864210537376</v>
       </c>
       <c r="T6">
-        <v>0.008866049724900595</v>
+        <v>0.007016864210537377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H7">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I7">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J7">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>7.147422468817889</v>
+        <v>6.659776532922557</v>
       </c>
       <c r="R7">
-        <v>64.326802219361</v>
+        <v>59.937988796303</v>
       </c>
       <c r="S7">
-        <v>0.0003694778231005691</v>
+        <v>0.0001663565951760929</v>
       </c>
       <c r="T7">
-        <v>0.0003694778231005691</v>
+        <v>0.0001663565951760929</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>199.8204946055678</v>
+        <v>702.7922876183045</v>
       </c>
       <c r="R8">
-        <v>1798.38445145011</v>
+        <v>6325.13058856474</v>
       </c>
       <c r="S8">
-        <v>0.01032949174053158</v>
+        <v>0.01755526352967466</v>
       </c>
       <c r="T8">
-        <v>0.01032949174053158</v>
+        <v>0.01755526352967466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>235.7366482283645</v>
@@ -1013,10 +1013,10 @@
         <v>2121.62983405528</v>
       </c>
       <c r="S9">
-        <v>0.01218613618999439</v>
+        <v>0.005888537845621293</v>
       </c>
       <c r="T9">
-        <v>0.01218613618999439</v>
+        <v>0.005888537845621294</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>30.17278558901667</v>
+        <v>40.41371498617445</v>
       </c>
       <c r="R10">
-        <v>271.55507030115</v>
+        <v>363.72343487557</v>
       </c>
       <c r="S10">
-        <v>0.001559747613205505</v>
+        <v>0.001009506548798069</v>
       </c>
       <c r="T10">
-        <v>0.001559747613205505</v>
+        <v>0.001009506548798069</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>25.02971847984889</v>
+        <v>12.75597284246</v>
       </c>
       <c r="R11">
-        <v>225.26746631864</v>
+        <v>114.80375558214</v>
       </c>
       <c r="S11">
-        <v>0.001293882646100835</v>
+        <v>0.0003186353475585949</v>
       </c>
       <c r="T11">
-        <v>0.001293882646100835</v>
+        <v>0.0003186353475585949</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>1078.401056847327</v>
+        <v>772.9254347720922</v>
       </c>
       <c r="R12">
-        <v>9705.60951162594</v>
+        <v>6956.32891294883</v>
       </c>
       <c r="S12">
-        <v>0.05574670822266396</v>
+        <v>0.0193071408654699</v>
       </c>
       <c r="T12">
-        <v>0.05574670822266396</v>
+        <v>0.0193071408654699</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>44.94056398017445</v>
+        <v>18.32460195832111</v>
       </c>
       <c r="R13">
-        <v>404.46507582157</v>
+        <v>164.92141762489</v>
       </c>
       <c r="S13">
-        <v>0.002323151012934726</v>
+        <v>0.0004577358376326338</v>
       </c>
       <c r="T13">
-        <v>0.002323151012934727</v>
+        <v>0.0004577358376326338</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H14">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I14">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J14">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>841.2925680026798</v>
+        <v>7565.859388684745</v>
       </c>
       <c r="R14">
-        <v>7571.633112024118</v>
+        <v>68092.73449816271</v>
       </c>
       <c r="S14">
-        <v>0.04348965630231274</v>
+        <v>0.1889899159920214</v>
       </c>
       <c r="T14">
-        <v>0.04348965630231274</v>
+        <v>0.1889899159920215</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H15">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I15">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J15">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>992.5082537297403</v>
+        <v>2537.805785120273</v>
       </c>
       <c r="R15">
-        <v>8932.574283567663</v>
+        <v>22840.25206608246</v>
       </c>
       <c r="S15">
-        <v>0.05130657808423375</v>
+        <v>0.06339262699637931</v>
       </c>
       <c r="T15">
-        <v>0.05130657808423374</v>
+        <v>0.06339262699637933</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H16">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I16">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J16">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>127.0347184460967</v>
+        <v>435.0709168935017</v>
       </c>
       <c r="R16">
-        <v>1143.31246601487</v>
+        <v>3915.638252041515</v>
       </c>
       <c r="S16">
-        <v>0.006566914357508284</v>
+        <v>0.01086776951700242</v>
       </c>
       <c r="T16">
-        <v>0.006566914357508283</v>
+        <v>0.01086776951700242</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H17">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I17">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J17">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>105.3811631177369</v>
+        <v>137.323500260648</v>
       </c>
       <c r="R17">
-        <v>948.4304680596319</v>
+        <v>1235.911502345832</v>
       </c>
       <c r="S17">
-        <v>0.00544755860093814</v>
+        <v>0.003430245718920483</v>
       </c>
       <c r="T17">
-        <v>0.005447558600938139</v>
+        <v>0.003430245718920485</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H18">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I18">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J18">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>4540.329040035374</v>
+        <v>8320.872696599243</v>
       </c>
       <c r="R18">
-        <v>40862.96136031837</v>
+        <v>74887.8542693932</v>
       </c>
       <c r="S18">
-        <v>0.2347071125557822</v>
+        <v>0.2078496243615718</v>
       </c>
       <c r="T18">
-        <v>0.2347071125557821</v>
+        <v>0.2078496243615719</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H19">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I19">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J19">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>189.2106340393184</v>
+        <v>197.2721730343924</v>
       </c>
       <c r="R19">
-        <v>1702.895706353866</v>
+        <v>1775.449557309532</v>
       </c>
       <c r="S19">
-        <v>0.009781027143325988</v>
+        <v>0.004927721953845953</v>
       </c>
       <c r="T19">
-        <v>0.009781027143325988</v>
+        <v>0.004927721953845954</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H20">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>77.71809759420388</v>
+        <v>352.0477126143506</v>
       </c>
       <c r="R20">
-        <v>699.462878347835</v>
+        <v>3168.429413529156</v>
       </c>
       <c r="S20">
-        <v>0.00401754809372185</v>
+        <v>0.008793907501330878</v>
       </c>
       <c r="T20">
-        <v>0.00401754809372185</v>
+        <v>0.00879390750133088</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H21">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>91.68731100234221</v>
+        <v>118.0868789403147</v>
       </c>
       <c r="R21">
-        <v>825.18579902108</v>
+        <v>1062.781910462832</v>
       </c>
       <c r="S21">
-        <v>0.004739670590745573</v>
+        <v>0.002949728270666383</v>
       </c>
       <c r="T21">
-        <v>0.004739670590745573</v>
+        <v>0.002949728270666384</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H22">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>11.73539030480833</v>
+        <v>20.24432562762867</v>
       </c>
       <c r="R22">
-        <v>105.618512743275</v>
+        <v>182.198930648658</v>
       </c>
       <c r="S22">
-        <v>0.0006066475686826487</v>
+        <v>0.0005056892023928795</v>
       </c>
       <c r="T22">
-        <v>0.0006066475686826487</v>
+        <v>0.0005056892023928796</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H23">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>9.735047986004444</v>
+        <v>6.389812666524</v>
       </c>
       <c r="R23">
-        <v>87.61543187404</v>
+        <v>57.508313998716</v>
       </c>
       <c r="S23">
-        <v>0.0005032421622396962</v>
+        <v>0.0001596130851780285</v>
       </c>
       <c r="T23">
-        <v>0.0005032421622396962</v>
+        <v>0.0001596130851780285</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H24">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>419.4328452003433</v>
+        <v>387.1793076374113</v>
       </c>
       <c r="R24">
-        <v>3774.89560680309</v>
+        <v>3484.613768736702</v>
       </c>
       <c r="S24">
-        <v>0.02168210082132328</v>
+        <v>0.009671470359821719</v>
       </c>
       <c r="T24">
-        <v>0.02168210082132328</v>
+        <v>0.009671470359821721</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H25">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>17.47916370762722</v>
+        <v>9.179289980340666</v>
       </c>
       <c r="R25">
-        <v>157.312473368645</v>
+        <v>82.613609823066</v>
       </c>
       <c r="S25">
-        <v>0.0009035653600284093</v>
+        <v>0.0002292922922735635</v>
       </c>
       <c r="T25">
-        <v>0.0009035653600284094</v>
+        <v>0.0002292922922735635</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H26">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>842.0306673639714</v>
+        <v>3151.307064857018</v>
       </c>
       <c r="R26">
-        <v>7578.276006275742</v>
+        <v>28361.76358371316</v>
       </c>
       <c r="S26">
-        <v>0.04352781150391607</v>
+        <v>0.07871746312693831</v>
       </c>
       <c r="T26">
-        <v>0.04352781150391608</v>
+        <v>0.07871746312693832</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H27">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>993.3790206139573</v>
+        <v>1057.038584651096</v>
       </c>
       <c r="R27">
-        <v>8940.411185525616</v>
+        <v>9513.347261859864</v>
       </c>
       <c r="S27">
-        <v>0.05135159138157445</v>
+        <v>0.02640409014371915</v>
       </c>
       <c r="T27">
-        <v>0.05135159138157445</v>
+        <v>0.02640409014371915</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H28">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>127.14617104667</v>
+        <v>181.214318649749</v>
       </c>
       <c r="R28">
-        <v>1144.31553942003</v>
+        <v>1630.928867847741</v>
       </c>
       <c r="S28">
-        <v>0.00657267577211871</v>
+        <v>0.004526607897232029</v>
       </c>
       <c r="T28">
-        <v>0.00657267577211871</v>
+        <v>0.00452660789723203</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H29">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>105.4736181947787</v>
+        <v>57.197536236198</v>
       </c>
       <c r="R29">
-        <v>949.2625637530081</v>
+        <v>514.777826125782</v>
       </c>
       <c r="S29">
-        <v>0.005452337960315457</v>
+        <v>0.001428754753808455</v>
       </c>
       <c r="T29">
-        <v>0.005452337960315457</v>
+        <v>0.001428754753808455</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H30">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>4544.312450910452</v>
+        <v>3465.782744229331</v>
       </c>
       <c r="R30">
-        <v>40898.81205819407</v>
+        <v>31192.04469806398</v>
       </c>
       <c r="S30">
-        <v>0.2349130304212868</v>
+        <v>0.08657284731700045</v>
       </c>
       <c r="T30">
-        <v>0.2349130304212868</v>
+        <v>0.08657284731700046</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H31">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>189.3766360384393</v>
+        <v>82.167161804873</v>
       </c>
       <c r="R31">
-        <v>1704.389724345954</v>
+        <v>739.504456243857</v>
       </c>
       <c r="S31">
-        <v>0.009789608426653383</v>
+        <v>0.002052478668851565</v>
       </c>
       <c r="T31">
-        <v>0.009789608426653384</v>
+        <v>0.002052478668851565</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H32">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N32">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q32">
-        <v>402.1643335186899</v>
+        <v>3752.603677060955</v>
       </c>
       <c r="R32">
-        <v>3619.479001668209</v>
+        <v>33773.43309354859</v>
       </c>
       <c r="S32">
-        <v>0.02078942487665098</v>
+        <v>0.09373743513390739</v>
       </c>
       <c r="T32">
-        <v>0.02078942487665097</v>
+        <v>0.09373743513390742</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H33">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q33">
-        <v>474.4501919476702</v>
+        <v>1258.730678388203</v>
       </c>
       <c r="R33">
-        <v>4270.051727529031</v>
+        <v>11328.57610549382</v>
       </c>
       <c r="S33">
-        <v>0.02452615958483632</v>
+        <v>0.03144221864880852</v>
       </c>
       <c r="T33">
-        <v>0.02452615958483632</v>
+        <v>0.03144221864880854</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H34">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N34">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q34">
-        <v>60.72659479079833</v>
+        <v>215.7915761636507</v>
       </c>
       <c r="R34">
-        <v>546.539353117185</v>
+        <v>1942.124185472856</v>
       </c>
       <c r="S34">
-        <v>0.003139191805927403</v>
+        <v>0.00539032378951519</v>
       </c>
       <c r="T34">
-        <v>0.003139191805927403</v>
+        <v>0.005390323789515191</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H35">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N35">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O35">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P35">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q35">
-        <v>50.37551363526845</v>
+        <v>68.11132028116801</v>
       </c>
       <c r="R35">
-        <v>453.379622717416</v>
+        <v>613.001882530512</v>
       </c>
       <c r="S35">
-        <v>0.002604104514142475</v>
+        <v>0.00170137350388709</v>
       </c>
       <c r="T35">
-        <v>0.002604104514142475</v>
+        <v>0.001701373503887091</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H36">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N36">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q36">
-        <v>2170.420222154587</v>
+        <v>4127.084032821629</v>
       </c>
       <c r="R36">
-        <v>19533.78199939128</v>
+        <v>37143.75629539467</v>
       </c>
       <c r="S36">
-        <v>0.1121973889739528</v>
+        <v>0.1030916944903155</v>
       </c>
       <c r="T36">
-        <v>0.1121973889739527</v>
+        <v>0.1030916944903155</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H37">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N37">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q37">
-        <v>90.44863989910922</v>
+        <v>97.84536612163468</v>
       </c>
       <c r="R37">
-        <v>814.0377590919829</v>
+        <v>880.608295094712</v>
       </c>
       <c r="S37">
-        <v>0.004675638905930976</v>
+        <v>0.002444109330288644</v>
       </c>
       <c r="T37">
-        <v>0.004675638905930976</v>
+        <v>0.002444109330288644</v>
       </c>
     </row>
   </sheetData>
